--- a/クイズをつくる/quiz.xlsx
+++ b/クイズをつくる/quiz.xlsx
@@ -22,14 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
-    <t xml:space="preserve">q_no</t>
-  </si>
-  <si>
     <t xml:space="preserve">問題</t>
   </si>
   <si>
@@ -39,67 +36,294 @@
     <t xml:space="preserve">点数</t>
   </si>
   <si>
-    <t xml:space="preserve">q01</t>
-  </si>
-  <si>
     <t xml:space="preserve">世界の真ん中には何がある？</t>
   </si>
   <si>
     <t xml:space="preserve">か</t>
   </si>
   <si>
-    <t xml:space="preserve">q02</t>
-  </si>
-  <si>
     <t xml:space="preserve">赤ずきんちゃんのおばあちゃんを食べた動物は？</t>
   </si>
   <si>
     <t xml:space="preserve">おおかみ</t>
   </si>
   <si>
-    <t xml:space="preserve">q03</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">[</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">かっぱの川流れ」と同じ意味のことわざは？</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">猿も木から落ちる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金太郎とすもうをして負けたの？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">くま</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浦島太郎を竜宮城に連れてってくれたのは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かめ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">乙姫さまがお土産にくれたのは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玉手箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">玉手箱を開けたときに中から出てきたのは？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">煙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桃太郎の家来になったのは、さる、いぬ、そして？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きじ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桃太郎は家来になったら、何をくれた？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きびだんご</t>
+  </si>
+  <si>
+    <t xml:space="preserve">桃太郎が家来とともに攻めこんだのは、どこ？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鬼ヶ島</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユーザー名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">かっぱの川流れ」と同じ意味のことわざは？</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">猿も木から落ちる</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ユーザー名</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">10</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">得点</t>
   </si>
   <si>
-    <t xml:space="preserve">メールアドレス</t>
-  </si>
-  <si>
     <t xml:space="preserve">yamamoto</t>
   </si>
   <si>
-    <t xml:space="preserve">yama@moto.jp</t>
-  </si>
-  <si>
     <t xml:space="preserve">tanaka</t>
   </si>
   <si>
-    <t xml:space="preserve">tanaka@tomo.jp</t>
+    <t xml:space="preserve">yamamoto_db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">users</t>
   </si>
   <si>
     <t xml:space="preserve">パスワード</t>
@@ -113,10 +337,10 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
-      <name val="Noto Sans CJK SC Regular"/>
+      <name val="Noto Sans CJK JP"/>
       <family val="2"/>
     </font>
     <font>
@@ -139,17 +363,26 @@
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,7 +393,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -197,13 +430,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="double"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right/>
       <top style="thin"/>
@@ -213,13 +439,6 @@
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -245,6 +464,13 @@
       <bottom style="double"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -270,7 +496,9 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -285,7 +513,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -293,6 +521,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,15 +533,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -317,19 +549,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -351,26 +579,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:F6"/>
+  <dimension ref="B3:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="4.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="43.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.19"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -379,58 +606,144 @@
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E4" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="4" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E7" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="E8" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="23.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -450,74 +763,209 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C3:K5"/>
+  <dimension ref="C2:T23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N11" activeCellId="0" sqref="N11"/>
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="5" style="0" width="5.28"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="5" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="n">
-        <v>20</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="9" t="n">
         <v>2</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="10" t="n">
+      <c r="D6" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" display="yama@moto.jp"/>
-    <hyperlink ref="F5" r:id="rId2" display="tanaka@tomo.jp"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -533,23 +981,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:E7"/>
+  <dimension ref="C3:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>21</v>
+      <c r="D5" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -557,9 +1010,9 @@
         <v>1</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="11" t="n">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="n">
         <v>1234</v>
       </c>
     </row>
@@ -568,9 +1021,9 @@
         <v>2</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11" t="n">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14" t="n">
         <v>2345</v>
       </c>
     </row>
